--- a/测试/测试结果汇总.xlsx
+++ b/测试/测试结果汇总.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctrlz/workSpace/openingreport-ldhai2023/测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538B5924-9ED6-4D4E-BE24-7D48AC71BF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CCCE7C-05CE-9142-B5CF-D46AC50B0B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="740" windowWidth="28240" windowHeight="16960" xr2:uid="{B9EB0BEB-F683-F948-9D3B-A7D8C9D76B28}"/>
   </bookViews>
@@ -193,823 +193,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>异步系统调用性能测试</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sync</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>9806</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9806</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9806</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9806</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9806</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9806</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4AAA-774E-95AF-2E1EEE138FC4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>async_up</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>21278</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14776</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8545</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7480</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7456</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7433</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4AAA-774E-95AF-2E1EEE138FC4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>async_smp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>19094</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11536</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6820</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6487</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6484</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6490</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4AAA-774E-95AF-2E1EEE138FC4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>taic_up</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$5:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>12216</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9927</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8588</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7242</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7201</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7168</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4AAA-774E-95AF-2E1EEE138FC4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>taic_smp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$6:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>7517</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6562</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6097</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5857</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5774</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5759</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4AAA-774E-95AF-2E1EEE138FC4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="326249520"/>
-        <c:axId val="326251168"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="326249520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>并发度</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="326251168"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="326251168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>单次系统调用的</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>CPU</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>周期数</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="326249520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1570,7 +753,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1938,7 +1121,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2315,7 +1498,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2400,174 +1583,6 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sync_up_fp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$Q$1:$V$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Q$2:$V$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3027</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3027</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3027</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3027</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3027</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3027</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-810A-C740-9CB7-2B7D717722C2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$P$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sync_up</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$Q$1:$V$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Q$3:$V$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8077</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8077</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8077</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8077</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8077</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8077</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-810A-C740-9CB7-2B7D717722C2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
@@ -2916,6 +1931,230 @@
         <c:axId val="325614320"/>
         <c:axId val="325615968"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sync_up_fp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0.5"/>
+            <c:backward val="0.5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$V$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-810A-C740-9CB7-2B7D717722C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sync_up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0.5"/>
+            <c:backward val="0.5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$1:$V$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$3:$V$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8077</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8077</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-810A-C740-9CB7-2B7D717722C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="325614320"/>
+        <c:axId val="325615968"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="325614320"/>
         <c:scaling>
@@ -3159,6 +2398,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3232,7 +2479,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3847,7 +3094,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4569,7 +3816,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -5281,6 +4528,828 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>异步系统调用性能测试</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>async_up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14776</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7456</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF7B-474A-B54C-180B5CFBB57D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>async_smp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19094</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6820</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6487</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6484</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6490</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF7B-474A-B54C-180B5CFBB57D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>taic_up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12216</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BF7B-474A-B54C-180B5CFBB57D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>taic_smp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BF7B-474A-B54C-180B5CFBB57D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="325854928"/>
+        <c:axId val="325856576"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sync</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0.5"/>
+            <c:backward val="0.5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9806</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BF7B-474A-B54C-180B5CFBB57D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="325854928"/>
+        <c:axId val="325856576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="325854928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>并发度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325856576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="325856576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>单次系统调用的</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>CPU</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>周期数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="325854928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -5637,7 +5706,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5745,6 +5814,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5755,6 +5829,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5786,6 +5865,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6140,7 +6222,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6248,11 +6330,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6263,11 +6340,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6299,9 +6371,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7662,7 +7731,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7866,22 +7935,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7986,8 +8056,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8119,19 +8189,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8165,7 +8236,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8369,23 +8440,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8490,8 +8560,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8623,20 +8693,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8670,7 +8739,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8778,6 +8847,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8788,6 +8862,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8819,6 +8898,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9173,7 +9255,7 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9281,11 +9363,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9296,11 +9373,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9332,9 +9404,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9693,51 +9762,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>655678</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>634565</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>274679</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104640</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A254CE1F-32B2-BB41-9FA4-87B625C7154C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>617632</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>158914</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>239889</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>14763</xdr:rowOff>
+      <xdr:colOff>256822</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>116363</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9756,7 +9789,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9792,7 +9825,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9828,7 +9861,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9864,7 +9897,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9900,7 +9933,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9936,7 +9969,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9961,6 +9994,42 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D348EB-FC26-3C49-A4D3-3445829A4B0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347133</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>97367</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>770466</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>198967</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B34B61A0-8DB9-E94A-8575-0382F366899E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10280,8 +10349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4144D034-565A-904E-9D27-085B6BA660AA}">
   <dimension ref="A1:AM56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="T44" sqref="T44"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="75" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10362,25 +10431,25 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>9806</v>
+        <v>21278</v>
       </c>
       <c r="C2">
-        <v>9806</v>
+        <v>14776</v>
       </c>
       <c r="D2">
-        <v>9806</v>
+        <v>8545</v>
       </c>
       <c r="E2">
-        <v>9806</v>
+        <v>7480</v>
       </c>
       <c r="F2">
-        <v>9806</v>
+        <v>7456</v>
       </c>
       <c r="G2">
-        <v>9806</v>
+        <v>7433</v>
       </c>
       <c r="P2" t="s">
         <v>12</v>
@@ -10448,25 +10517,25 @@
     </row>
     <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>21278</v>
+        <v>19094</v>
       </c>
       <c r="C3">
-        <v>14776</v>
+        <v>11536</v>
       </c>
       <c r="D3">
-        <v>8545</v>
+        <v>6820</v>
       </c>
       <c r="E3">
-        <v>7480</v>
+        <v>6487</v>
       </c>
       <c r="F3">
-        <v>7456</v>
+        <v>6484</v>
       </c>
       <c r="G3">
-        <v>7433</v>
+        <v>6490</v>
       </c>
       <c r="P3" t="s">
         <v>13</v>
@@ -10534,25 +10603,25 @@
     </row>
     <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>19094</v>
+        <v>12216</v>
       </c>
       <c r="C4">
-        <v>11536</v>
+        <v>9927</v>
       </c>
       <c r="D4">
-        <v>6820</v>
+        <v>8588</v>
       </c>
       <c r="E4">
-        <v>6487</v>
+        <v>7242</v>
       </c>
       <c r="F4">
-        <v>6484</v>
+        <v>7201</v>
       </c>
       <c r="G4">
-        <v>6490</v>
+        <v>7168</v>
       </c>
       <c r="P4" t="s">
         <v>1</v>
@@ -10620,25 +10689,25 @@
     </row>
     <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>12216</v>
+        <v>7517</v>
       </c>
       <c r="C5">
-        <v>9927</v>
+        <v>6562</v>
       </c>
       <c r="D5">
-        <v>8588</v>
+        <v>6097</v>
       </c>
       <c r="E5">
-        <v>7242</v>
+        <v>5857</v>
       </c>
       <c r="F5">
-        <v>7201</v>
+        <v>5774</v>
       </c>
       <c r="G5">
-        <v>7168</v>
+        <v>5759</v>
       </c>
       <c r="P5" t="s">
         <v>2</v>
@@ -10706,25 +10775,25 @@
     </row>
     <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>7517</v>
+        <v>9806</v>
       </c>
       <c r="C6">
-        <v>6562</v>
+        <v>9806</v>
       </c>
       <c r="D6">
-        <v>6097</v>
+        <v>9806</v>
       </c>
       <c r="E6">
-        <v>5857</v>
+        <v>9806</v>
       </c>
       <c r="F6">
-        <v>5774</v>
+        <v>9806</v>
       </c>
       <c r="G6">
-        <v>5759</v>
+        <v>9806</v>
       </c>
       <c r="P6" t="s">
         <v>3</v>
